--- a/Documentacion/PREGAME/1. ELICITACION/1.3 Historias Usuario/7185_5G_Cadena_Caicedo_Leiva_U1T5_V2.2.xlsx
+++ b/Documentacion/PREGAME/1. ELICITACION/1.3 Historias Usuario/7185_5G_Cadena_Caicedo_Leiva_U1T5_V2.2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s_lei\Desktop\Analisis y diseño de software\7185_G5\Documentacion\PREGAME\1. ELICITACION\1.3 Historias Usuario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1EC1B352-1403-4C4B-B3F9-E72408EE5C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B87E0C-57DB-43DF-AA8E-B8A0EEF58940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formato descripción HU" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="99">
   <si>
     <t>Matriz de Marco de Trabajo de HU</t>
   </si>
@@ -112,9 +112,6 @@
   </si>
   <si>
     <t>REQ008</t>
-  </si>
-  <si>
-    <t>REQ009</t>
   </si>
   <si>
     <t>No iniciado</t>
@@ -337,27 +334,6 @@
   </si>
   <si>
     <t>Eliminar la informacion de los productos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> El sistema deberá autorizar al usuario cambiar la contraseña</t>
-  </si>
-  <si>
-    <t>Cambiar contraseña</t>
-  </si>
-  <si>
-    <t>Los usuarios puedan cambiar su contraseña en caso de olvidarse</t>
-  </si>
-  <si>
-    <t>En la parte principal de inicio de sesion del sistema tendran una opcion de olvido de contraseña en caso de que los usuarios no recuerden su contraseña y deseen cambiar si seleccionan la opcion el sistema desplegara un formulario que el usuario debera  llenar correctamente y para finalizar dara en la opcion de guardar.</t>
-  </si>
-  <si>
-    <t>revisando la base de datos y ver si se modifico el cambio de contraseña.</t>
-  </si>
-  <si>
-    <t>Si los datos ingresados son correctos el sistema dara un mensaje de cambio exitoso si los datos son erroneos el sistema dara un mensaje de error de datos</t>
-  </si>
-  <si>
-    <t>Solicitar cambio de conraseña</t>
   </si>
 </sst>
 </file>
@@ -953,16 +929,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -987,13 +953,7 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1001,24 +961,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1041,13 +983,29 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1056,20 +1014,44 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1086,19 +1068,13 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1437,10 +1413,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z995"/>
+  <dimension ref="A1:Z994"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1491,22 +1467,22 @@
     </row>
     <row r="3" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
@@ -1526,7 +1502,7 @@
       <c r="K4" s="2"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:26" s="24" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" s="20" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
@@ -1570,117 +1546,117 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:26" s="29" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="25" t="s">
+    <row r="6" spans="1:26" s="25" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="E6" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="F6" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="G6" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="25" t="s">
+      <c r="H6" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="H6" s="25" t="s">
+      <c r="I6" s="21">
+        <v>4</v>
+      </c>
+      <c r="J6" s="23">
+        <v>44580</v>
+      </c>
+      <c r="K6" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="25">
-        <v>4</v>
-      </c>
-      <c r="J6" s="27">
+      <c r="N6" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="O6" s="24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" s="25" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" s="21">
+        <v>3</v>
+      </c>
+      <c r="J7" s="23">
         <v>44580</v>
       </c>
-      <c r="K6" s="25" t="s">
+      <c r="K7" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="L6" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="M6" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="N6" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="O6" s="28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" s="29" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="H7" s="25" t="s">
+      <c r="L7" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="I7" s="25">
-        <v>3</v>
-      </c>
-      <c r="J7" s="27">
-        <v>44580</v>
-      </c>
-      <c r="K7" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="L7" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="M7" s="25" t="s">
+      <c r="N7" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="N7" s="25" t="s">
+      <c r="O7" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="O7" s="25" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" s="24" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:26" s="20" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="E8" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="F8" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="F8" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="H8" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="I8" s="25">
+      <c r="H8" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="I8" s="21">
         <v>3</v>
       </c>
       <c r="J8" s="10">
@@ -1690,41 +1666,41 @@
         <v>16</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M8" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="N8" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="N8" s="8" t="s">
+      <c r="O8" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="O8" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" s="24" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:26" s="20" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="H9" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="I9" s="25">
+        <v>69</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" s="21">
         <v>3</v>
       </c>
       <c r="J9" s="10">
@@ -1734,41 +1710,41 @@
         <v>16</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N9" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O9" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" s="24" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" s="20" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G10" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="H10" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="I10" s="25">
+      <c r="I10" s="21">
         <v>3</v>
       </c>
       <c r="J10" s="10">
@@ -1778,39 +1754,39 @@
         <v>16</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N10" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" s="24" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" s="20" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="E11" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="F11" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="F11" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>82</v>
-      </c>
       <c r="H11" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I11" s="11">
         <v>4</v>
@@ -1825,36 +1801,36 @@
         <v>22</v>
       </c>
       <c r="M11" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="N11" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="N11" s="10" t="s">
+      <c r="O11" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="O11" s="68" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" s="24" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:26" s="20" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="E12" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="F12" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="F12" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>89</v>
-      </c>
       <c r="H12" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I12" s="11">
         <v>4</v>
@@ -1869,36 +1845,36 @@
         <v>22</v>
       </c>
       <c r="M12" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="N12" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="N12" s="10" t="s">
+      <c r="O12" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="O12" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" s="24" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:26" s="20" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C13" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="E13" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="F13" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="F13" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="H13" s="69" t="s">
-        <v>45</v>
+      <c r="H13" s="42" t="s">
+        <v>44</v>
       </c>
       <c r="I13" s="11">
         <v>3</v>
@@ -1913,73 +1889,35 @@
         <v>22</v>
       </c>
       <c r="M13" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="N13" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="N13" s="10" t="s">
+      <c r="O13" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="O13" s="10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" s="24" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="H14" s="69" t="s">
-        <v>45</v>
-      </c>
-      <c r="I14" s="11">
-        <v>3</v>
-      </c>
-      <c r="J14" s="10">
-        <v>44806</v>
-      </c>
-      <c r="K14" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="L14" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="M14" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="N14" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="O14" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="14"/>
+    </row>
+    <row r="14" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+    </row>
+    <row r="15" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="2"/>
       <c r="L15" s="3"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
     </row>
     <row r="16" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I16" s="1"/>
@@ -1993,10 +1931,10 @@
       <c r="K17" s="2"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="9:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="9:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="2"/>
+      <c r="K18" s="15"/>
       <c r="L18" s="3"/>
     </row>
     <row r="19" spans="9:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2005,10 +1943,10 @@
       <c r="K19" s="15"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="9:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="9:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="15"/>
+      <c r="K20" s="2"/>
       <c r="L20" s="3"/>
     </row>
     <row r="21" spans="9:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2026,17 +1964,22 @@
     <row r="23" spans="9:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="3"/>
+      <c r="K23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M23" s="5"/>
     </row>
     <row r="24" spans="9:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="2" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="M24" s="5"/>
     </row>
@@ -2047,16 +1990,14 @@
         <v>27</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="M25" s="5"/>
     </row>
     <row r="26" spans="9:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
-      <c r="K26" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="K26" s="2"/>
       <c r="L26" s="1" t="s">
         <v>29</v>
       </c>
@@ -2066,10 +2007,7 @@
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="2"/>
-      <c r="L27" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M27" s="5"/>
+      <c r="L27" s="3"/>
     </row>
     <row r="28" spans="9:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I28" s="1"/>
@@ -2077,7 +2015,7 @@
       <c r="K28" s="2"/>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="9:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="9:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="2"/>
@@ -7861,10 +7799,10 @@
       <c r="K992" s="2"/>
       <c r="L992" s="3"/>
     </row>
-    <row r="993" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I993" s="1"/>
-      <c r="J993" s="1"/>
-      <c r="K993" s="2"/>
+    <row r="993" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I993" s="3"/>
+      <c r="J993" s="3"/>
+      <c r="K993" s="14"/>
       <c r="L993" s="3"/>
     </row>
     <row r="994" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7873,22 +7811,16 @@
       <c r="K994" s="14"/>
       <c r="L994" s="3"/>
     </row>
-    <row r="995" spans="9:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I995" s="3"/>
-      <c r="J995" s="3"/>
-      <c r="K995" s="14"/>
-      <c r="L995" s="3"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B3:O3"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L6:L14" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>$L$24:$L$27</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L6:L13" xr:uid="{00000000-0002-0000-0000-000000000000}">
+      <formula1>$L$23:$L$26</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K6:K14" xr:uid="{00000000-0002-0000-0000-000001000000}">
-      <formula1>$K$24:$K$26</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K6:K13" xr:uid="{00000000-0002-0000-0000-000001000000}">
+      <formula1>$K$23:$K$25</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
@@ -7904,7 +7836,7 @@
   </sheetPr>
   <dimension ref="A2:Z1020"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -7931,26 +7863,26 @@
       <c r="E5" s="16"/>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="2:16" s="24" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="41"/>
-      <c r="P6" s="42"/>
-    </row>
-    <row r="7" spans="2:16" s="24" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:16" s="20" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="68" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="69"/>
+      <c r="N6" s="69"/>
+      <c r="O6" s="69"/>
+      <c r="P6" s="56"/>
+    </row>
+    <row r="7" spans="2:16" s="20" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
@@ -7965,370 +7897,370 @@
       <c r="N7" s="17"/>
       <c r="O7" s="17"/>
     </row>
-    <row r="8" spans="2:16" s="24" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="43"/>
+    <row r="8" spans="2:16" s="20" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="31"/>
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
       <c r="E8" s="18"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="45"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="46"/>
-    </row>
-    <row r="9" spans="2:16" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="47"/>
-      <c r="C9" s="30" t="s">
+      <c r="F8" s="32"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="34"/>
+    </row>
+    <row r="9" spans="2:16" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="35"/>
+      <c r="C9" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="31"/>
-      <c r="E9" s="32" t="s">
+      <c r="D9" s="27"/>
+      <c r="E9" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="56"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="56"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="37"/>
+    </row>
+    <row r="10" spans="2:16" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="35"/>
+      <c r="C10" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="19"/>
+      <c r="E10" s="57" t="str">
+        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O13,5,0)</f>
+        <v>Administrador</v>
+      </c>
+      <c r="F10" s="56"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="57" t="str">
+        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O13,11,0)</f>
+        <v>Terminado</v>
+      </c>
+      <c r="I10" s="56"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="37"/>
+    </row>
+    <row r="11" spans="2:16" s="20" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="35"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="37"/>
+    </row>
+    <row r="12" spans="2:16" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="35"/>
+      <c r="C12" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="42"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" s="42"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="48"/>
-      <c r="N9" s="48"/>
-      <c r="O9" s="48"/>
-      <c r="P9" s="49"/>
-    </row>
-    <row r="10" spans="2:16" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="47"/>
-      <c r="C10" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="34" t="str">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O14,5,0)</f>
-        <v>Administrador</v>
-      </c>
-      <c r="F10" s="42"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="34" t="str">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O14,11,0)</f>
-        <v>Terminado</v>
-      </c>
-      <c r="I10" s="42"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="48"/>
-      <c r="O10" s="48"/>
-      <c r="P10" s="49"/>
-    </row>
-    <row r="11" spans="2:16" s="24" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="47"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="49"/>
-    </row>
-    <row r="12" spans="2:16" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="47"/>
-      <c r="C12" s="30" t="s">
+      <c r="D12" s="19"/>
+      <c r="E12" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="56"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="42"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="I12" s="42"/>
+      <c r="I12" s="56"/>
       <c r="J12" s="19"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="48"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="49"/>
-    </row>
-    <row r="13" spans="2:16" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="47"/>
-      <c r="C13" s="33">
-        <f>VLOOKUP('Historia de Usuario'!C10,'Formato descripción HU'!B6:O14,8,0)</f>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="37"/>
+    </row>
+    <row r="13" spans="2:16" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="35"/>
+      <c r="C13" s="28">
+        <f>VLOOKUP('Historia de Usuario'!C10,'Formato descripción HU'!B6:O13,8,0)</f>
         <v>4</v>
       </c>
       <c r="D13" s="19"/>
-      <c r="E13" s="34" t="str">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O14,10,0)</f>
+      <c r="E13" s="57" t="str">
+        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O13,10,0)</f>
         <v>Alta</v>
       </c>
-      <c r="F13" s="42"/>
+      <c r="F13" s="56"/>
       <c r="G13" s="19"/>
-      <c r="H13" s="34" t="str">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O14,7,0)</f>
+      <c r="H13" s="57" t="str">
+        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O13,7,0)</f>
         <v>Pablo Cadena</v>
       </c>
-      <c r="I13" s="42"/>
+      <c r="I13" s="56"/>
       <c r="J13" s="19"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="49"/>
-    </row>
-    <row r="14" spans="2:16" s="24" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="47"/>
-      <c r="C14" s="48"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="37"/>
+    </row>
+    <row r="14" spans="2:16" s="20" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="35"/>
+      <c r="C14" s="36"/>
       <c r="D14" s="19"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
       <c r="G14" s="19"/>
       <c r="H14" s="19"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="48"/>
-      <c r="O14" s="48"/>
-      <c r="P14" s="49"/>
-    </row>
-    <row r="15" spans="2:16" s="24" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="47"/>
-      <c r="C15" s="37" t="s">
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="37"/>
+    </row>
+    <row r="15" spans="2:16" s="20" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="35"/>
+      <c r="C15" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="51" t="str">
+        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O13,3,0)</f>
+        <v>Crear Cuenta</v>
+      </c>
+      <c r="E15" s="46"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="23" t="str">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O14,3,0)</f>
-        <v>Crear Cuenta</v>
-      </c>
-      <c r="E15" s="50"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="37" t="s">
+      <c r="H15" s="51" t="str">
+        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O13,4,0)</f>
+        <v>Controlar las cuentas que existen en el sistema.</v>
+      </c>
+      <c r="I15" s="52"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="H15" s="23" t="str">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O14,4,0)</f>
-        <v>Controlar las cuentas que existen en el sistema.</v>
-      </c>
-      <c r="I15" s="51"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="M15" s="23" t="str">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O14,6,0)</f>
+      <c r="M15" s="51" t="str">
+        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O13,6,0)</f>
         <v>El usuario administrador selecciona la opcion de crear cuenta, luego se llena el formulacio respectivo y se confirma la transaccion</v>
       </c>
-      <c r="N15" s="51"/>
-      <c r="O15" s="50"/>
-      <c r="P15" s="49"/>
-    </row>
-    <row r="16" spans="2:16" s="24" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="47"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="52"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="55"/>
-      <c r="O16" s="54"/>
-      <c r="P16" s="49"/>
-    </row>
-    <row r="17" spans="1:26" s="24" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="47"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="57"/>
-      <c r="N17" s="59"/>
-      <c r="O17" s="58"/>
-      <c r="P17" s="49"/>
-    </row>
-    <row r="18" spans="1:26" s="24" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="47"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="46"/>
+      <c r="P15" s="37"/>
+    </row>
+    <row r="16" spans="2:16" s="20" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="35"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="59"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="48"/>
+      <c r="P16" s="37"/>
+    </row>
+    <row r="17" spans="1:26" s="20" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="35"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="60"/>
+      <c r="M17" s="49"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="50"/>
+      <c r="P17" s="37"/>
+    </row>
+    <row r="18" spans="1:26" s="20" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="35"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
       <c r="G18" s="19"/>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="48"/>
-      <c r="M18" s="48"/>
-      <c r="N18" s="48"/>
-      <c r="O18" s="48"/>
-      <c r="P18" s="49"/>
-    </row>
-    <row r="19" spans="1:26" s="24" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="47"/>
-      <c r="C19" s="38" t="s">
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="37"/>
+    </row>
+    <row r="19" spans="1:26" s="20" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="35"/>
+      <c r="C19" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="46"/>
+      <c r="E19" s="61" t="str">
+        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O13,14,0)</f>
+        <v>Creacion de cuentas</v>
+      </c>
+      <c r="F19" s="62"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="62"/>
+      <c r="K19" s="62"/>
+      <c r="L19" s="62"/>
+      <c r="M19" s="62"/>
+      <c r="N19" s="62"/>
+      <c r="O19" s="63"/>
+      <c r="P19" s="37"/>
+    </row>
+    <row r="20" spans="1:26" s="20" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="35"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="65"/>
+      <c r="M20" s="65"/>
+      <c r="N20" s="65"/>
+      <c r="O20" s="66"/>
+      <c r="P20" s="37"/>
+    </row>
+    <row r="21" spans="1:26" s="20" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="35"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="37"/>
+    </row>
+    <row r="22" spans="1:26" s="20" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="35"/>
+      <c r="C22" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="50"/>
-      <c r="E19" s="39" t="str">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O14,14,0)</f>
-        <v>Creacion de cuentas</v>
-      </c>
-      <c r="F19" s="60"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="60"/>
-      <c r="K19" s="60"/>
-      <c r="L19" s="60"/>
-      <c r="M19" s="60"/>
-      <c r="N19" s="60"/>
-      <c r="O19" s="61"/>
-      <c r="P19" s="49"/>
-    </row>
-    <row r="20" spans="1:26" s="24" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="47"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="63"/>
-      <c r="K20" s="63"/>
-      <c r="L20" s="63"/>
-      <c r="M20" s="63"/>
-      <c r="N20" s="63"/>
-      <c r="O20" s="64"/>
-      <c r="P20" s="49"/>
-    </row>
-    <row r="21" spans="1:26" s="24" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="47"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="48"/>
-      <c r="M21" s="48"/>
-      <c r="N21" s="48"/>
-      <c r="O21" s="48"/>
-      <c r="P21" s="49"/>
-    </row>
-    <row r="22" spans="1:26" s="24" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="47"/>
-      <c r="C22" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" s="50"/>
-      <c r="E22" s="23" t="str">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O14,12,0)</f>
+      <c r="D22" s="46"/>
+      <c r="E22" s="51" t="str">
+        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O13,12,0)</f>
         <v>Verificar que la cuenta creada aparesca en la base de datos junto con todos sus datos asociados</v>
       </c>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="40" t="s">
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="K22" s="50"/>
-      <c r="L22" s="23" t="str">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O14,13,0)</f>
+      <c r="K22" s="46"/>
+      <c r="L22" s="51" t="str">
+        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O13,13,0)</f>
         <v>Si se ingresa datos correctos en el formulario debera poder crear la cuenta sin ningun problema, pero si se ingresa datos que no exiten el sistema dara un mensaje de usuraio no registrado o datos insertados incorrectamente</v>
       </c>
-      <c r="M22" s="51"/>
-      <c r="N22" s="51"/>
-      <c r="O22" s="50"/>
-      <c r="P22" s="49"/>
-    </row>
-    <row r="23" spans="1:26" s="24" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="47"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="54"/>
-      <c r="L23" s="53"/>
-      <c r="M23" s="55"/>
-      <c r="N23" s="55"/>
-      <c r="O23" s="54"/>
-      <c r="P23" s="49"/>
-    </row>
-    <row r="24" spans="1:26" s="24" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="47"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="58"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="57"/>
-      <c r="K24" s="58"/>
-      <c r="L24" s="57"/>
-      <c r="M24" s="59"/>
-      <c r="N24" s="59"/>
-      <c r="O24" s="58"/>
-      <c r="P24" s="49"/>
-    </row>
-    <row r="25" spans="1:26" s="24" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="65"/>
-      <c r="C25" s="66"/>
-      <c r="D25" s="66"/>
-      <c r="E25" s="66"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="66"/>
-      <c r="H25" s="66"/>
-      <c r="I25" s="66"/>
-      <c r="J25" s="66"/>
-      <c r="K25" s="66"/>
-      <c r="L25" s="66"/>
-      <c r="M25" s="66"/>
-      <c r="N25" s="66"/>
-      <c r="O25" s="66"/>
-      <c r="P25" s="67"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="46"/>
+      <c r="P22" s="37"/>
+    </row>
+    <row r="23" spans="1:26" s="20" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="35"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="48"/>
+      <c r="L23" s="47"/>
+      <c r="M23" s="53"/>
+      <c r="N23" s="53"/>
+      <c r="O23" s="48"/>
+      <c r="P23" s="37"/>
+    </row>
+    <row r="24" spans="1:26" s="20" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="35"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="49"/>
+      <c r="M24" s="54"/>
+      <c r="N24" s="54"/>
+      <c r="O24" s="50"/>
+      <c r="P24" s="37"/>
+    </row>
+    <row r="25" spans="1:26" s="20" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="38"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="39"/>
+      <c r="O25" s="39"/>
+      <c r="P25" s="40"/>
     </row>
     <row r="26" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
@@ -9868,6 +9800,15 @@
     <row r="1020" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="C22:D24"/>
+    <mergeCell ref="E22:H24"/>
+    <mergeCell ref="B6:P6"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="H10:I10"/>
     <mergeCell ref="J22:K24"/>
     <mergeCell ref="L22:O24"/>
     <mergeCell ref="H12:I12"/>
@@ -9880,15 +9821,6 @@
     <mergeCell ref="E19:O20"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="C22:D24"/>
-    <mergeCell ref="E22:H24"/>
-    <mergeCell ref="B6:P6"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="H10:I10"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:I11">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
@@ -9919,7 +9851,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
-            <xm:f>'Formato descripción HU'!$B$6:$B$14</xm:f>
+            <xm:f>'Formato descripción HU'!$B$6:$B$13</xm:f>
           </x14:formula1>
           <xm:sqref>C10:C11</xm:sqref>
         </x14:dataValidation>
